--- a/results_cv.xlsx
+++ b/results_cv.xlsx
@@ -463,23 +463,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RANDOM FOREST VGG16 PCA</t>
+          <t>Regresión Logística gray</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5247282509323995</v>
+        <v>0.2377205781933585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5106406958904053</v>
+        <v>0.2369306836345303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5105595000016662</v>
+        <v>0.2344130759382817</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5211864406779662</v>
+        <v>0.2454802259887006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8107799163942339</v>
+        <v>0.5362792635039743</v>
       </c>
     </row>
   </sheetData>

--- a/results_cv.xlsx
+++ b/results_cv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,336 @@
         <v>0.5362792635039743</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Arbol de decisión VGG16 PCA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4120612279999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.412583766</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4113763</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.418926552</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.633403644</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Arbol de decisión VGG16</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.458118624</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.451168048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.451106712</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.460734464</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.686157164</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Random forest VGG16 PCA HOG</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5037818940000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4756451460000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.476544432</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.494067798</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7734382660000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Regresión Logística RGB</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3775171436831139</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3700685209334312</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3705640720201777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3782485875706215</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6791304066675697</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CNN1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7130769230769232</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6859374523264683</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9219999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.435028</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.435433</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.420852</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.416206</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.728536</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RANDOM FOREST</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5460873906902155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.528289923846244</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5294628881954131</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5398305084745763</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8188933221716116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Random Forest VGG16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7267629325971763</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6972474996971654</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7013168485558446</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7132768361581922</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9156021220879513</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MobileNetV2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8621212121212121</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8548340548340549</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9559999999999998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Regresión Logística gray</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2617213910071104</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2593436106419517</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2574144908313781</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2677966101694915</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5515791982594687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CNN2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7448759964569762</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7385593220338983</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7345161124391414</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7385593220338983</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9369362716109212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Random forest HOG 250</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5041420239999999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.47366143</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.47369658</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.493785312</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.775377248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Random forest VGG16 250</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.642054192</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.588764738</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5953931880000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6087570619999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8569167440000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Árbol de Decisión VGG16</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4749160797946737</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4727382729540192</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.471018402810777</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4782485875706216</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7072209126229811</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MobileNetV2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8266666666666668</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.814658035462989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9600000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_cv.xlsx
+++ b/results_cv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,28 @@
         <v>0.9600000000000002</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4388509954078563</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4211583820419995</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.417901113442194</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4358757062146893</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.728394408426335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_cv.xlsx
+++ b/results_cv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,6 +834,50 @@
         <v>0.728394408426335</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Árbol de Decisión VGG16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4749160797946737</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4727382729540192</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.471018402810777</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4782485875706216</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7072209126229811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Árbol de Decisión VGG16 PCA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5251508181845809</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5239877280651721</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5238354656277789</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5338983050847459</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6971586288526027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results_cv.xlsx
+++ b/results_cv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,6 +878,28 @@
         <v>0.6971586288526027</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>MobileNetV2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8016317016317016</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7708653026427962</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9629999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
